--- a/111/内部設計書.xlsx
+++ b/111/内部設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeuchi\Desktop\3年PM演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeuchi\Desktop\外部、内部\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,12 +20,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">処理!$A$1:$P$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_内部!$A$1:$Q$36</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -44,13 +44,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WBS番号</t>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>担当・日付</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
@@ -62,10 +55,6 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.0.0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -122,13 +111,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン処理</t>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システム処理フロー</t>
     <rPh sb="4" eb="6">
       <t>ショリ</t>
@@ -153,24 +135,6 @@
   </si>
   <si>
     <t>(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○○管理テーブル</t>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>苗字</t>
-    <rPh sb="0" eb="2">
-      <t>ミョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>YYYY/MM/DD</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -425,22 +389,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像出力</t>
+    <t>竹内</t>
     <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュツリョク</t>
+      <t>タケウチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像入力</t>
+    <t xml:space="preserve">hyouji </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像表示</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -449,14 +414,93 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1</t>
+    <t>画像入力処理</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tweets管理テーブル</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longblob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -986,7 +1030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1146,22 +1190,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1170,28 +1250,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1203,65 +1274,44 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,15 +1460,25 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>画像と名前</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
@@ -1427,7 +1487,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>に対するパスワード問合せ</a:t>
+            <a:t>問合せ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1451,7 +1511,6 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="30" name="カギ線コネクタ 29"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="52" idx="2"/>
           <a:endCxn id="28" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -1590,207 +1649,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123266</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="カギ線コネクタ 32"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="40" idx="2"/>
-          <a:endCxn id="35" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="885266" y="3877236"/>
-          <a:ext cx="190500" cy="11206"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:colOff>57631</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>62434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>156884</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="グループ化 33"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="297757" y="3979690"/>
-          <a:ext cx="1352710" cy="571501"/>
-          <a:chOff x="336178" y="3787589"/>
-          <a:chExt cx="1367117" cy="571501"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="ひし形 34"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="336178" y="3787589"/>
-            <a:ext cx="1367117" cy="571501"/>
-          </a:xfrm>
-          <a:prstGeom prst="diamond">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="398523" y="3888442"/>
-            <a:ext cx="1229363" cy="392415"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>パスワードの</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>正誤確認</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>32931</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123263</xdr:rowOff>
+      <xdr:colOff>915</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1799,8 +1667,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="302559" y="4751294"/>
-          <a:ext cx="1366431" cy="437028"/>
+          <a:off x="265740" y="4288652"/>
+          <a:ext cx="1352024" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -1836,6 +1704,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>png</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -1843,7 +1721,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>メニュー画面</a:t>
+            <a:t>画像を表示</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -1853,19 +1731,6 @@
             <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>表示</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1873,28 +1738,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>134129</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:colOff>142476</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>134473</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:colOff>144075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>16009</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="38" name="カギ線コネクタ 37"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="2"/>
-          <a:endCxn id="37" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="885096" y="4650269"/>
-          <a:ext cx="201704" cy="344"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="745993" y="4011707"/>
+          <a:ext cx="459440" cy="1599"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2035,18 +1897,11 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ID</a:t>
-            </a:r>
-            <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>が存在する</a:t>
+              <a:t>画像が存在する</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2057,15 +1912,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:colOff>115261</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>705284</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123263</xdr:rowOff>
+      <xdr:colOff>697280</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2074,8 +1929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1759324" y="4751294"/>
-          <a:ext cx="1366431" cy="437028"/>
+          <a:off x="1732110" y="4304660"/>
+          <a:ext cx="1582544" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -2118,7 +1973,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ログイン失敗</a:t>
+            <a:t>画像の読み込み失敗の表示</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -2127,19 +1982,6 @@
             <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>画面表示</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2153,10 +1995,10 @@
       <xdr:rowOff>117663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22069</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>906533</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2168,58 +2010,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1658471" y="3501839"/>
-          <a:ext cx="784069" cy="1249455"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>39222</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22069</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="カギ線コネクタ 43"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="3"/>
-          <a:endCxn id="42" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1669677" y="4263840"/>
-          <a:ext cx="772863" cy="487454"/>
+          <a:off x="1639261" y="3503440"/>
+          <a:ext cx="884121" cy="801220"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2252,7 +2044,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="363689" cy="242374"/>
+    <xdr:ext cx="184731" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
@@ -2260,8 +2052,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="997323" y="3709146"/>
-          <a:ext cx="363689" cy="242374"/>
+          <a:off x="978113" y="3710747"/>
+          <a:ext cx="184731" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2288,13 +2080,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Yes</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
             <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
@@ -2307,20 +2092,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:colOff>750794</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="363689" cy="242374"/>
+    <xdr:ext cx="184731" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="997323" y="4459941"/>
-          <a:ext cx="363689" cy="242374"/>
+          <a:off x="1583231" y="3262512"/>
+          <a:ext cx="184731" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2347,13 +2132,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Yes</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
             <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
@@ -2363,195 +2141,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>750794</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="317203" cy="242374"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1602441" y="3260911"/>
-          <a:ext cx="317203" cy="242374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>No</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>750794</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="317203" cy="242374"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1602441" y="4034118"/>
-          <a:ext cx="317203" cy="242374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>No</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>78439</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>23292</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="フローチャート : 手操作入力 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="291351" y="1288677"/>
-          <a:ext cx="1368000" cy="425823"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ログインボタン押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2616,7 +2205,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>顧客情報テーブル</a:t>
+            <a:t>画像一覧テーブル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2677,16 +2266,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>20809</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60831</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>20811</xdr:rowOff>
+      <xdr:rowOff>36821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>664350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>121664</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>80043</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>128068</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2695,8 +2284,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3422595" y="1221441"/>
-          <a:ext cx="1427952" cy="268941"/>
+          <a:off x="268940" y="1237451"/>
+          <a:ext cx="1427952" cy="427424"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -2755,212 +2344,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12809</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>88050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>704370</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>32019</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="フローチャート : 定義済み処理 44"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3414595" y="2129121"/>
-          <a:ext cx="1475972" cy="280146"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>画像選択画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>256134</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>808423</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>96052</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="47" name="グループ化 46"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7011680" y="3044799"/>
-          <a:ext cx="1336701" cy="437030"/>
-          <a:chOff x="336178" y="3787589"/>
-          <a:chExt cx="1367117" cy="571501"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="ひし形 52"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="336178" y="3787589"/>
-            <a:ext cx="1367117" cy="571501"/>
-          </a:xfrm>
-          <a:prstGeom prst="diamond">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="テキスト ボックス 53"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="398523" y="3888442"/>
-            <a:ext cx="1229363" cy="392415"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>名前、画像確認</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>192100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>80042</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>736386</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>102453</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2969,7 +2362,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5378823" y="2121113"/>
+          <a:off x="5378823" y="2865503"/>
           <a:ext cx="1328697" cy="358588"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -3013,7 +2406,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>画像情報データベース</a:t>
+            <a:t>画像一覧テーブル</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -3029,65 +2422,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>701170</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>135269</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>704371</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>120061</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="カギ線コネクタ 55"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3860028" y="1746915"/>
-          <a:ext cx="489057" cy="3201"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 2537"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>789854</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>111895</xdr:rowOff>
+      <xdr:colOff>773845</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>159920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>104054</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:colOff>88045</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160084</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3096,7 +2440,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4976051" y="2321055"/>
+          <a:off x="4960042" y="3041433"/>
           <a:ext cx="314726" cy="164"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -3127,30 +2471,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>141836</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>160242</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>84045</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>145037</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>86448</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>145034</xdr:rowOff>
+      <xdr:rowOff>80045</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="カギ線コネクタ 60"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="62" name="カギ線コネクタ 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7438866" y="1771888"/>
-          <a:ext cx="489057" cy="3201"/>
+          <a:off x="4135371" y="1815753"/>
+          <a:ext cx="272146" cy="2403"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 2537"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3177,64 +2523,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>710453</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>56507</xdr:rowOff>
+      <xdr:colOff>56031</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>713654</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>41299</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="カギ線コネクタ 61"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3869311" y="2676683"/>
-          <a:ext cx="489057" cy="3201"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 2537"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>56031</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>48026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>896471</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>148879</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>896472</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3243,8 +2540,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6811577" y="1248656"/>
-          <a:ext cx="1624852" cy="268941"/>
+          <a:off x="3457817" y="1312689"/>
+          <a:ext cx="1624852" cy="368193"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -3303,87 +2600,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>232121</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>760398</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="フローチャート : 磁気ディスク 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8772604" y="2097101"/>
-          <a:ext cx="1312689" cy="358588"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>画像情報データベース</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:colOff>128068</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>720379</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>32018</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3392,8 +2618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3401786" y="2937542"/>
-          <a:ext cx="1504790" cy="280146"/>
+          <a:off x="3529854" y="2793467"/>
+          <a:ext cx="1376722" cy="456240"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3436,7 +2662,27 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>画像出力</a:t>
+            <a:t>入力情報の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>問い合わせ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3445,15 +2691,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>128065</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>176090</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>763596</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>811622</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>88046</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3463,7 +2709,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6883611" y="2041071"/>
+          <a:off x="3577876" y="4730483"/>
           <a:ext cx="1419943" cy="424223"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
@@ -3516,173 +2762,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>814829</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>72835</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160084</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80041</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="カギ線コネクタ 66"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8354787" y="2281995"/>
-          <a:ext cx="409814" cy="7206"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 1172"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142474</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>728383</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>104853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>145675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>89645</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="カギ線コネクタ 67"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7439504" y="2725029"/>
-          <a:ext cx="489057" cy="3201"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 2537"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>143116</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>41459</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>146317</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>26252</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="カギ線コネクタ 69"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7440146" y="3838253"/>
-          <a:ext cx="489057" cy="3201"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 2537"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>232123</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>96051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>848447</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:rowOff>36817</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="フローチャート : 定義済み処理 41"/>
+        <xdr:cNvPr id="59" name="フローチャート : 定義済み処理 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6987669" y="4154181"/>
-          <a:ext cx="1400736" cy="340978"/>
+          <a:off x="3561870" y="1977037"/>
+          <a:ext cx="1352710" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3725,8 +2824,405 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>名前、画像表示</a:t>
+            <a:t>各変数へ入力値をセット</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104055</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>72039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106458</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8009</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="カギ線コネクタ 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4155381" y="2584158"/>
+          <a:ext cx="272146" cy="2403"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104054</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>64035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106457</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="カギ線コネクタ 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4155380" y="3416595"/>
+          <a:ext cx="272146" cy="2403"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>208110</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>776409</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99253</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="74" name="グループ化 73"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3609896" y="3585882"/>
+          <a:ext cx="1352710" cy="571501"/>
+          <a:chOff x="336178" y="3787589"/>
+          <a:chExt cx="1367117" cy="571501"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="ひし形 74"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="336178" y="3787589"/>
+            <a:ext cx="1367117" cy="571501"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="テキスト ボックス 75"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="398523" y="3888442"/>
+            <a:ext cx="1229363" cy="392415"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>画像が存在する</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88048</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4045325" y="4455139"/>
+          <a:ext cx="459440" cy="1599"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>871178</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>754773</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>118783</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="カギ線コネクタ 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057375" y="3879958"/>
+          <a:ext cx="884121" cy="801220"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>964028</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>158804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>761635</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="フローチャート : 定義済み処理 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5150225" y="4721199"/>
+          <a:ext cx="1582544" cy="437028"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画像の読み込み失敗の表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4028,7 +3524,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:M17"/>
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4041,10 +3537,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A1" s="46"/>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="D1" s="39"/>
@@ -4059,12 +3552,12 @@
       <c r="M1" s="39"/>
       <c r="N1" s="39"/>
       <c r="O1" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="53">
+        <v>20</v>
+      </c>
+      <c r="P1" s="63">
         <v>42934</v>
       </c>
-      <c r="Q1" s="54"/>
+      <c r="Q1" s="64"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
@@ -4081,11 +3574,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="62"/>
+      <c r="O2" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="66"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
@@ -4130,17 +3623,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
+      <c r="E5" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -4151,15 +3644,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -4170,15 +3663,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -4226,19 +3719,19 @@
       <c r="A10" s="40"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
+      <c r="D10" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="41"/>
@@ -4247,17 +3740,17 @@
       <c r="A11" s="40"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="41"/>
@@ -4266,17 +3759,17 @@
       <c r="A12" s="40"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="41"/>
@@ -4286,17 +3779,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
+      <c r="E13" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -4307,15 +3800,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -4326,15 +3819,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -4345,15 +3838,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -4364,15 +3857,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4403,15 +3896,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
+      <c r="F19" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
       <c r="M19" s="37"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4424,13 +3917,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="37"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4443,13 +3936,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
       <c r="M21" s="37"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4462,13 +3955,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
       <c r="M22" s="37"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4481,13 +3974,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
       <c r="M23" s="37"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4500,13 +3993,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="37"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4519,13 +4012,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="37"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4579,16 +4072,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="81"/>
+      <c r="I28" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="61"/>
       <c r="Q28" s="41"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -4600,22 +4093,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="64"/>
-      <c r="K29" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" s="64"/>
-      <c r="M29" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" s="87"/>
+      <c r="I29" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="54"/>
+      <c r="K29" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="54"/>
+      <c r="M29" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="77"/>
       <c r="Q29" s="41"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4629,12 +4122,12 @@
       <c r="H30" s="2"/>
       <c r="I30" s="55"/>
       <c r="J30" s="56"/>
-      <c r="K30" s="85"/>
+      <c r="K30" s="75"/>
       <c r="L30" s="56"/>
       <c r="M30" s="56"/>
       <c r="N30" s="56"/>
       <c r="O30" s="56"/>
-      <c r="P30" s="59"/>
+      <c r="P30" s="71"/>
       <c r="Q30" s="41"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4648,12 +4141,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="55"/>
       <c r="J31" s="56"/>
-      <c r="K31" s="85"/>
+      <c r="K31" s="75"/>
       <c r="L31" s="56"/>
       <c r="M31" s="56"/>
       <c r="N31" s="56"/>
       <c r="O31" s="56"/>
-      <c r="P31" s="59"/>
+      <c r="P31" s="71"/>
       <c r="Q31" s="41"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4667,12 +4160,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="55"/>
       <c r="J32" s="56"/>
-      <c r="K32" s="85"/>
+      <c r="K32" s="75"/>
       <c r="L32" s="56"/>
       <c r="M32" s="56"/>
       <c r="N32" s="56"/>
       <c r="O32" s="56"/>
-      <c r="P32" s="59"/>
+      <c r="P32" s="71"/>
       <c r="Q32" s="41"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4686,12 +4179,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="55"/>
       <c r="J33" s="56"/>
-      <c r="K33" s="85"/>
+      <c r="K33" s="75"/>
       <c r="L33" s="56"/>
       <c r="M33" s="56"/>
       <c r="N33" s="56"/>
       <c r="O33" s="56"/>
-      <c r="P33" s="59"/>
+      <c r="P33" s="71"/>
       <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4705,12 +4198,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="55"/>
       <c r="J34" s="56"/>
-      <c r="K34" s="85"/>
+      <c r="K34" s="75"/>
       <c r="L34" s="56"/>
       <c r="M34" s="56"/>
       <c r="N34" s="56"/>
       <c r="O34" s="56"/>
-      <c r="P34" s="59"/>
+      <c r="P34" s="71"/>
       <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4724,12 +4217,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="57"/>
       <c r="J35" s="58"/>
-      <c r="K35" s="86"/>
+      <c r="K35" s="76"/>
       <c r="L35" s="58"/>
       <c r="M35" s="58"/>
       <c r="N35" s="58"/>
       <c r="O35" s="58"/>
-      <c r="P35" s="60"/>
+      <c r="P35" s="72"/>
       <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4786,7 +4279,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4807,39 +4300,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="4" t="s">
+      <c r="H1" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="O1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4864,10 +4353,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4887,7 +4376,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -4905,60 +4394,56 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
+      <c r="B6" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" s="88" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J6" s="88"/>
       <c r="K6" s="88"/>
       <c r="L6" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="88" t="s">
-        <v>41</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M6" s="88"/>
       <c r="N6" s="88"/>
       <c r="O6" s="88"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
+      <c r="B7" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7" s="56" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
       <c r="H7" s="31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7" s="88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J7" s="88"/>
       <c r="K7" s="88"/>
       <c r="L7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="88" t="s">
-        <v>40</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="M7" s="88"/>
       <c r="N7" s="88"/>
       <c r="O7" s="88"/>
       <c r="P7" s="9"/>
@@ -4968,7 +4453,9 @@
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
       <c r="H8" s="23"/>
@@ -5160,7 +4647,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
       <c r="P18" s="35" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -5396,7 +4883,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="35" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -5563,17 +5050,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5593,7 +5080,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5614,39 +5101,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
       <c r="D1" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74"/>
+        <v>32</v>
+      </c>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>17</v>
+      <c r="P1" s="19">
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5671,10 +5154,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -5694,7 +5177,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -5732,10 +5215,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -5755,26 +5238,26 @@
       <c r="B8" s="16"/>
       <c r="C8" s="22"/>
       <c r="D8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="78"/>
+        <v>4</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="90"/>
       <c r="G8" s="30" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
+        <v>16</v>
+      </c>
+      <c r="J8" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -5788,14 +5271,22 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="74"/>
+      <c r="E9" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="83"/>
+      <c r="G9" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="89"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="83"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -5809,14 +5300,20 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="E10" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="83"/>
+      <c r="G10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="I10" s="26"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="83"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -5830,14 +5327,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="E11" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="83"/>
+      <c r="G11" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="74"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="83"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -5851,14 +5354,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="E12" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="83"/>
+      <c r="G12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -5872,14 +5381,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="83"/>
+      <c r="G13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="74"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -5893,14 +5408,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="74"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="83"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -5914,14 +5429,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="74"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="74"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -5935,14 +5450,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="74"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="74"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="83"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -5956,14 +5471,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="74"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="83"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -5977,14 +5492,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="74"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="74"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -5998,14 +5513,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="74"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="74"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="83"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -6019,14 +5534,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="74"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="74"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="83"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -6040,14 +5555,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="74"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="74"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="83"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -6061,14 +5576,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="74"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="74"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="83"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -6082,14 +5597,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="74"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="74"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="83"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -6103,14 +5618,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="74"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="83"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="74"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="83"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -6124,14 +5639,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="74"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="74"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="83"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -6145,14 +5660,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="74"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="83"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="74"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="83"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -6412,12 +5927,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -6434,25 +5962,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
